--- a/etc/220708 buyback.xlsx
+++ b/etc/220708 buyback.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -121,6 +127,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,9 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -418,7 +428,8 @@
     <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="6.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.4">
@@ -430,8 +441,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>100</v>
+      <c r="C2" s="5">
+        <v>200</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -472,15 +483,15 @@
       </c>
       <c r="I3" s="3">
         <f>$C$2/3*H3</f>
-        <v>0.10330578512396693</v>
+        <v>0.20661157024793386</v>
       </c>
       <c r="J3" s="3">
         <f>I3*3</f>
-        <v>0.30991735537190079</v>
+        <v>0.61983471074380159</v>
       </c>
       <c r="K3" s="3">
         <f>J3*3</f>
-        <v>0.92975206611570238</v>
+        <v>1.8595041322314048</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
@@ -500,21 +511,21 @@
         <v>6.1983471074380158E-3</v>
       </c>
       <c r="I4" s="3">
-        <f>$C$2/3*H4</f>
-        <v>0.20661157024793386</v>
+        <f t="shared" ref="I4:I18" si="2">$C$2/3*H4</f>
+        <v>0.41322314049586772</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:K19" si="2">I4*3</f>
-        <v>0.61983471074380159</v>
+        <f t="shared" ref="J4:K18" si="3">I4*3</f>
+        <v>1.2396694214876032</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.8595041322314048</v>
+        <f t="shared" si="3"/>
+        <v>3.7190082644628095</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E5">
-        <f t="shared" ref="E5:E18" si="3">E4+1</f>
+        <f t="shared" ref="E5:E18" si="4">E4+1</f>
         <v>3</v>
       </c>
       <c r="F5">
@@ -529,21 +540,21 @@
         <v>1.0330578512396695E-2</v>
       </c>
       <c r="I5" s="3">
-        <f>$C$2/3*H5</f>
-        <v>0.34435261707988984</v>
+        <f t="shared" si="2"/>
+        <v>0.68870523415977969</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0330578512396695</v>
+        <f t="shared" si="3"/>
+        <v>2.0661157024793391</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
-        <v>3.0991735537190088</v>
+        <f t="shared" si="3"/>
+        <v>6.1983471074380176</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F6">
@@ -558,21 +569,21 @@
         <v>1.549586776859504E-2</v>
       </c>
       <c r="I6" s="3">
-        <f>$C$2/3*H6</f>
-        <v>0.51652892561983466</v>
+        <f t="shared" si="2"/>
+        <v>1.0330578512396693</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>1.549586776859504</v>
+        <f t="shared" si="3"/>
+        <v>3.0991735537190079</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
-        <v>4.6487603305785115</v>
+        <f t="shared" si="3"/>
+        <v>9.2975206611570229</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F7">
@@ -587,21 +598,21 @@
         <v>2.1694214876033055E-2</v>
       </c>
       <c r="I7" s="3">
-        <f>$C$2/3*H7</f>
-        <v>0.72314049586776852</v>
+        <f t="shared" si="2"/>
+        <v>1.446280991735537</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1694214876033056</v>
+        <f t="shared" si="3"/>
+        <v>4.3388429752066111</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
-        <v>6.5082644628099171</v>
+        <f t="shared" si="3"/>
+        <v>13.016528925619834</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F8">
@@ -616,21 +627,21 @@
         <v>2.8925619834710745E-2</v>
       </c>
       <c r="I8" s="3">
-        <f>$C$2/3*H8</f>
-        <v>0.96418732782369154</v>
+        <f t="shared" si="2"/>
+        <v>1.9283746556473831</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>2.8925619834710745</v>
+        <f t="shared" si="3"/>
+        <v>5.785123966942149</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
-        <v>8.677685950413224</v>
+        <f t="shared" si="3"/>
+        <v>17.355371900826448</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F9">
@@ -645,21 +656,21 @@
         <v>3.71900826446281E-2</v>
       </c>
       <c r="I9" s="3">
-        <f>$C$2/3*H9</f>
-        <v>1.2396694214876034</v>
+        <f t="shared" si="2"/>
+        <v>2.4793388429752068</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="2"/>
-        <v>3.7190082644628104</v>
+        <f t="shared" si="3"/>
+        <v>7.4380165289256208</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
-        <v>11.15702479338843</v>
+        <f t="shared" si="3"/>
+        <v>22.314049586776861</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F10">
@@ -674,21 +685,21 @@
         <v>4.6487603305785122E-2</v>
       </c>
       <c r="I10" s="3">
-        <f>$C$2/3*H10</f>
-        <v>1.5495867768595042</v>
+        <f t="shared" si="2"/>
+        <v>3.0991735537190084</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="2"/>
-        <v>4.6487603305785123</v>
+        <f t="shared" si="3"/>
+        <v>9.2975206611570247</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
-        <v>13.946280991735538</v>
+        <f t="shared" si="3"/>
+        <v>27.892561983471076</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F11">
@@ -703,21 +714,21 @@
         <v>5.6818181818181809E-2</v>
       </c>
       <c r="I11" s="3">
-        <f>$C$2/3*H11</f>
-        <v>1.8939393939393938</v>
+        <f t="shared" si="2"/>
+        <v>3.7878787878787876</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>5.6818181818181817</v>
+        <f t="shared" si="3"/>
+        <v>11.363636363636363</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
-        <v>17.045454545454547</v>
+        <f t="shared" si="3"/>
+        <v>34.090909090909093</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F12">
@@ -732,21 +743,21 @@
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="I12" s="3">
-        <f>$C$2/3*H12</f>
-        <v>2.2727272727272729</v>
+        <f t="shared" si="2"/>
+        <v>4.5454545454545459</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
-        <v>6.8181818181818183</v>
+        <f t="shared" si="3"/>
+        <v>13.636363636363637</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
-        <v>20.454545454545453</v>
+        <f t="shared" si="3"/>
+        <v>40.909090909090907</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F13">
@@ -761,21 +772,21 @@
         <v>8.057851239669421E-2</v>
       </c>
       <c r="I13" s="3">
-        <f>$C$2/3*H13</f>
-        <v>2.6859504132231407</v>
+        <f t="shared" si="2"/>
+        <v>5.3719008264462813</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="2"/>
-        <v>8.0578512396694215</v>
+        <f t="shared" si="3"/>
+        <v>16.115702479338843</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
-        <v>24.173553719008265</v>
+        <f t="shared" si="3"/>
+        <v>48.347107438016529</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="F14">
@@ -790,21 +801,21 @@
         <v>9.400826446280991E-2</v>
       </c>
       <c r="I14" s="3">
-        <f>$C$2/3*H14</f>
-        <v>3.1336088154269972</v>
+        <f t="shared" si="2"/>
+        <v>6.2672176308539944</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="2"/>
-        <v>9.4008264462809912</v>
+        <f t="shared" si="3"/>
+        <v>18.801652892561982</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
-        <v>28.202479338842974</v>
+        <f t="shared" si="3"/>
+        <v>56.404958677685947</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="F15">
@@ -819,21 +830,21 @@
         <v>0.10847107438016529</v>
       </c>
       <c r="I15" s="3">
-        <f>$C$2/3*H15</f>
-        <v>3.615702479338843</v>
+        <f t="shared" si="2"/>
+        <v>7.2314049586776861</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="2"/>
-        <v>10.847107438016529</v>
+        <f t="shared" si="3"/>
+        <v>21.694214876033058</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
-        <v>32.541322314049587</v>
+        <f t="shared" si="3"/>
+        <v>65.082644628099175</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F16">
@@ -848,21 +859,21 @@
         <v>0.12396694214876032</v>
       </c>
       <c r="I16" s="3">
-        <f>$C$2/3*H16</f>
-        <v>4.1322314049586772</v>
+        <f t="shared" si="2"/>
+        <v>8.2644628099173545</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="2"/>
-        <v>12.396694214876032</v>
+        <f t="shared" si="3"/>
+        <v>24.793388429752063</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
-        <v>37.190082644628092</v>
+        <f t="shared" si="3"/>
+        <v>74.380165289256183</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.4">
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="F17">
@@ -877,21 +888,21 @@
         <v>0.14049586776859505</v>
       </c>
       <c r="I17" s="3">
-        <f>$C$2/3*H17</f>
-        <v>4.6831955922865021</v>
+        <f t="shared" si="2"/>
+        <v>9.3663911845730041</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
-        <v>14.049586776859506</v>
+        <f t="shared" si="3"/>
+        <v>28.099173553719012</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
-        <v>42.148760330578519</v>
+        <f t="shared" si="3"/>
+        <v>84.297520661157037</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.4">
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F18">
@@ -906,16 +917,16 @@
         <v>0.15805785123966942</v>
       </c>
       <c r="I18" s="3">
-        <f>$C$2/3*H18</f>
-        <v>5.2685950413223148</v>
+        <f t="shared" si="2"/>
+        <v>10.53719008264463</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
-        <v>15.805785123966945</v>
+        <f t="shared" si="3"/>
+        <v>31.611570247933891</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
-        <v>47.41735537190084</v>
+        <f t="shared" si="3"/>
+        <v>94.834710743801679</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.4">
@@ -923,21 +934,25 @@
         <f>SUM(G3:G18)</f>
         <v>322.66666666666669</v>
       </c>
+      <c r="H19" s="2">
+        <f>SUM(H3:H18)</f>
+        <v>1</v>
+      </c>
       <c r="I19" s="3">
         <f>SUM(I3:I18)</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="J19" s="3">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="J19" s="4">
         <f>SUM(J3:J18)</f>
-        <v>99.999999999999986</v>
+        <v>199.99999999999997</v>
       </c>
       <c r="K19" s="3">
         <f>SUM(K3:K18)</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L19" s="3">
         <f>SUM(I19:K19)</f>
-        <v>433.33333333333331</v>
+        <v>866.66666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/etc/220708 buyback.xlsx
+++ b/etc/220708 buyback.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>item_lv</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +59,26 @@
   </si>
   <si>
     <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mint fee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trading fee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cure fee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dapps staking</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -415,9 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -432,17 +454,17 @@
     <col min="11" max="11" width="8.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -465,8 +487,11 @@
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E3">
         <v>1</v>
       </c>
@@ -483,18 +508,21 @@
       </c>
       <c r="I3" s="3">
         <f>$C$2/3*H3</f>
-        <v>0.20661157024793386</v>
+        <v>0.10330578512396693</v>
       </c>
       <c r="J3" s="3">
         <f>I3*3</f>
-        <v>0.61983471074380159</v>
+        <v>0.30991735537190079</v>
       </c>
       <c r="K3" s="3">
         <f>J3*3</f>
-        <v>1.8595041322314048</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+        <v>0.92975206611570238</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E4">
         <f>E3+1</f>
         <v>2</v>
@@ -512,18 +540,21 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4:I18" si="2">$C$2/3*H4</f>
-        <v>0.41322314049586772</v>
+        <v>0.20661157024793386</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ref="J4:K18" si="3">I4*3</f>
-        <v>1.2396694214876032</v>
+        <v>0.61983471074380159</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="3"/>
-        <v>3.7190082644628095</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1.8595041322314048</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E5">
         <f t="shared" ref="E5:E18" si="4">E4+1</f>
         <v>3</v>
@@ -541,18 +572,21 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="2"/>
-        <v>0.68870523415977969</v>
+        <v>0.34435261707988984</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="3"/>
-        <v>2.0661157024793391</v>
+        <v>1.0330578512396695</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="3"/>
-        <v>6.1983471074380176</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+        <v>3.0991735537190088</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E6">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -570,18 +604,21 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="2"/>
-        <v>1.0330578512396693</v>
+        <v>0.51652892561983466</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="3"/>
-        <v>3.0991735537190079</v>
+        <v>1.549586776859504</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="3"/>
-        <v>9.2975206611570229</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+        <v>4.6487603305785115</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E7">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -599,18 +636,18 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" si="2"/>
-        <v>1.446280991735537</v>
+        <v>0.72314049586776852</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="3"/>
-        <v>4.3388429752066111</v>
+        <v>2.1694214876033056</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="3"/>
-        <v>13.016528925619834</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+        <v>6.5082644628099171</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E8">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -628,18 +665,18 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="2"/>
-        <v>1.9283746556473831</v>
+        <v>0.96418732782369154</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="3"/>
-        <v>5.785123966942149</v>
+        <v>2.8925619834710745</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="3"/>
-        <v>17.355371900826448</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+        <v>8.677685950413224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E9">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -657,18 +694,18 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="2"/>
-        <v>2.4793388429752068</v>
+        <v>1.2396694214876034</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="3"/>
-        <v>7.4380165289256208</v>
+        <v>3.7190082644628104</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="3"/>
-        <v>22.314049586776861</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+        <v>11.15702479338843</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E10">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -686,18 +723,18 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="2"/>
-        <v>3.0991735537190084</v>
+        <v>1.5495867768595042</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="3"/>
-        <v>9.2975206611570247</v>
+        <v>4.6487603305785123</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="3"/>
-        <v>27.892561983471076</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+        <v>13.946280991735538</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E11">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -715,18 +752,18 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="2"/>
-        <v>3.7878787878787876</v>
+        <v>1.8939393939393938</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="3"/>
-        <v>11.363636363636363</v>
+        <v>5.6818181818181817</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="3"/>
-        <v>34.090909090909093</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+        <v>17.045454545454547</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E12">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -744,18 +781,18 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="3"/>
-        <v>13.636363636363637</v>
+        <v>6.8181818181818183</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+        <v>20.454545454545453</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E13">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -773,18 +810,18 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
-        <v>5.3719008264462813</v>
+        <v>2.6859504132231407</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="3"/>
-        <v>16.115702479338843</v>
+        <v>8.0578512396694215</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="3"/>
-        <v>48.347107438016529</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+        <v>24.173553719008265</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E14">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -802,18 +839,18 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
-        <v>6.2672176308539944</v>
+        <v>3.1336088154269972</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="3"/>
-        <v>18.801652892561982</v>
+        <v>9.4008264462809912</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="3"/>
-        <v>56.404958677685947</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+        <v>28.202479338842974</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E15">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -831,18 +868,18 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="2"/>
-        <v>7.2314049586776861</v>
+        <v>3.615702479338843</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="3"/>
-        <v>21.694214876033058</v>
+        <v>10.847107438016529</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="3"/>
-        <v>65.082644628099175</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+        <v>32.541322314049587</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E16">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -860,15 +897,15 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="2"/>
-        <v>8.2644628099173545</v>
+        <v>4.1322314049586772</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="3"/>
-        <v>24.793388429752063</v>
+        <v>12.396694214876032</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="3"/>
-        <v>74.380165289256183</v>
+        <v>37.190082644628092</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.4">
@@ -889,15 +926,15 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="2"/>
-        <v>9.3663911845730041</v>
+        <v>4.6831955922865021</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="3"/>
-        <v>28.099173553719012</v>
+        <v>14.049586776859506</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="3"/>
-        <v>84.297520661157037</v>
+        <v>42.148760330578519</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.4">
@@ -918,15 +955,15 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
-        <v>10.53719008264463</v>
+        <v>5.2685950413223148</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="3"/>
-        <v>31.611570247933891</v>
+        <v>15.805785123966945</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="3"/>
-        <v>94.834710743801679</v>
+        <v>47.41735537190084</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.4">
@@ -940,19 +977,19 @@
       </c>
       <c r="I19" s="3">
         <f>SUM(I3:I18)</f>
-        <v>66.666666666666671</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J19" s="4">
         <f>SUM(J3:J18)</f>
-        <v>199.99999999999997</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="K19" s="3">
         <f>SUM(K3:K18)</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L19" s="3">
         <f>SUM(I19:K19)</f>
-        <v>866.66666666666663</v>
+        <v>433.33333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/etc/220708 buyback.xlsx
+++ b/etc/220708 buyback.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="inflation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>item_lv</t>
     <phoneticPr fontId="1"/>
@@ -79,6 +80,50 @@
   </si>
   <si>
     <t>dapps staking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mint fee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coefficient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>withdraw time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/mo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>infle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>staking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/mo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/d</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -86,10 +131,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -136,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -153,6 +200,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,16 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O19"/>
+  <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="4" max="4" width="4.375" customWidth="1"/>
     <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
@@ -452,19 +514,23 @@
     <col min="8" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="6.875" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="M1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -487,11 +553,23 @@
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
+      <c r="M2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.5</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -507,7 +585,7 @@
         <v>3.0991735537190079E-3</v>
       </c>
       <c r="I3" s="3">
-        <f>$C$2/3*H3</f>
+        <f>$C$4/3*H3</f>
         <v>0.10330578512396693</v>
       </c>
       <c r="J3" s="3">
@@ -518,11 +596,26 @@
         <f>J3*3</f>
         <v>0.92975206611570238</v>
       </c>
-      <c r="O3" t="s">
+      <c r="M3">
+        <f>I3*$M$2</f>
+        <v>0.92975206611570238</v>
+      </c>
+      <c r="N3" s="7">
+        <f>$C$2/(I3*$M$2)*7</f>
+        <v>1505.7777777777781</v>
+      </c>
+      <c r="P3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <f>C2*C3</f>
+        <v>100</v>
+      </c>
       <c r="E4">
         <f>E3+1</f>
         <v>2</v>
@@ -539,24 +632,32 @@
         <v>6.1983471074380158E-3</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I18" si="2">$C$2/3*H4</f>
+        <f>$C$4/3*H4</f>
         <v>0.20661157024793386</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:K18" si="3">I4*3</f>
+        <f t="shared" ref="J4:K18" si="2">I4*3</f>
         <v>0.61983471074380159</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.8595041322314048</v>
       </c>
-      <c r="O4" t="s">
+      <c r="M4">
+        <f t="shared" ref="M4:M18" si="3">I4*$M$2</f>
+        <v>1.8595041322314048</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N18" si="4">$C$2/(I4*$M$2)*7</f>
+        <v>752.88888888888903</v>
+      </c>
+      <c r="P4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E5">
-        <f t="shared" ref="E5:E18" si="4">E4+1</f>
+        <f t="shared" ref="E5:E18" si="5">E4+1</f>
         <v>3</v>
       </c>
       <c r="F5">
@@ -571,24 +672,32 @@
         <v>1.0330578512396695E-2</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H5</f>
         <v>0.34435261707988984</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0330578512396695</v>
       </c>
       <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0991735537190088</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="3"/>
         <v>3.0991735537190088</v>
       </c>
-      <c r="O5" t="s">
+      <c r="N5" s="7">
+        <f t="shared" si="4"/>
+        <v>451.73333333333323</v>
+      </c>
+      <c r="P5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F6">
@@ -603,24 +712,32 @@
         <v>1.549586776859504E-2</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H6</f>
         <v>0.51652892561983466</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.549586776859504</v>
       </c>
       <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>4.6487603305785115</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="3"/>
         <v>4.6487603305785115</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" s="7">
+        <f t="shared" si="4"/>
+        <v>301.15555555555562</v>
+      </c>
+      <c r="P6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F7">
@@ -635,21 +752,29 @@
         <v>2.1694214876033055E-2</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H7</f>
         <v>0.72314049586776852</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1694214876033056</v>
       </c>
       <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5082644628099171</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="3"/>
         <v>6.5082644628099171</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N7" s="7">
+        <f t="shared" si="4"/>
+        <v>215.11111111111111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F8">
@@ -664,21 +789,29 @@
         <v>2.8925619834710745E-2</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H8</f>
         <v>0.96418732782369154</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8925619834710745</v>
       </c>
       <c r="K8" s="3">
+        <f t="shared" si="2"/>
+        <v>8.677685950413224</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="3"/>
         <v>8.677685950413224</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N8" s="7">
+        <f t="shared" si="4"/>
+        <v>161.33333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F9">
@@ -693,21 +826,29 @@
         <v>3.71900826446281E-2</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H9</f>
         <v>1.2396694214876034</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7190082644628104</v>
       </c>
       <c r="K9" s="3">
+        <f t="shared" si="2"/>
+        <v>11.15702479338843</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="3"/>
         <v>11.15702479338843</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N9" s="7">
+        <f t="shared" si="4"/>
+        <v>125.48148148148147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F10">
@@ -722,21 +863,29 @@
         <v>4.6487603305785122E-2</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H10</f>
         <v>1.5495867768595042</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.6487603305785123</v>
       </c>
       <c r="K10" s="3">
+        <f t="shared" si="2"/>
+        <v>13.946280991735538</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="3"/>
         <v>13.946280991735538</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N10" s="7">
+        <f t="shared" si="4"/>
+        <v>100.38518518518518</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F11">
@@ -751,21 +900,29 @@
         <v>5.6818181818181809E-2</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H11</f>
         <v>1.8939393939393938</v>
       </c>
       <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>17.045454545454547</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="3"/>
-        <v>5.6818181818181817</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="3"/>
-        <v>17.045454545454547</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+        <v>17.045454545454543</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="4"/>
+        <v>82.13333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F12">
@@ -780,21 +937,29 @@
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H12</f>
         <v>2.2727272727272729</v>
       </c>
       <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="2"/>
+        <v>20.454545454545453</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="3"/>
-        <v>6.8181818181818183</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="3"/>
-        <v>20.454545454545453</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+        <v>20.454545454545457</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="4"/>
+        <v>68.444444444444443</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="F13">
@@ -809,21 +974,29 @@
         <v>8.057851239669421E-2</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H13</f>
         <v>2.6859504132231407</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.0578512396694215</v>
       </c>
       <c r="K13" s="3">
+        <f t="shared" si="2"/>
+        <v>24.173553719008265</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="3"/>
         <v>24.173553719008265</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N13" s="7">
+        <f t="shared" si="4"/>
+        <v>57.914529914529922</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F14">
@@ -838,21 +1011,29 @@
         <v>9.400826446280991E-2</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H14</f>
         <v>3.1336088154269972</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.4008264462809912</v>
       </c>
       <c r="K14" s="3">
+        <f t="shared" si="2"/>
+        <v>28.202479338842974</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="3"/>
         <v>28.202479338842974</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N14" s="7">
+        <f t="shared" si="4"/>
+        <v>49.641025641025642</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F15">
@@ -867,21 +1048,29 @@
         <v>0.10847107438016529</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H15</f>
         <v>3.615702479338843</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.847107438016529</v>
       </c>
       <c r="K15" s="3">
+        <f t="shared" si="2"/>
+        <v>32.541322314049587</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="3"/>
         <v>32.541322314049587</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N15" s="7">
+        <f t="shared" si="4"/>
+        <v>43.022222222222219</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="F16">
@@ -896,21 +1085,29 @@
         <v>0.12396694214876032</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H16</f>
         <v>4.1322314049586772</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.396694214876032</v>
       </c>
       <c r="K16" s="3">
+        <f t="shared" si="2"/>
+        <v>37.190082644628092</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="3"/>
         <v>37.190082644628092</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="N16" s="7">
+        <f t="shared" si="4"/>
+        <v>37.644444444444453</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.4">
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="F17">
@@ -925,21 +1122,29 @@
         <v>0.14049586776859505</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H17</f>
         <v>4.6831955922865021</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14.049586776859506</v>
       </c>
       <c r="K17" s="3">
+        <f t="shared" si="2"/>
+        <v>42.148760330578519</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="3"/>
         <v>42.148760330578519</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="N17" s="7">
+        <f t="shared" si="4"/>
+        <v>33.2156862745098</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.4">
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="F18">
@@ -954,19 +1159,27 @@
         <v>0.15805785123966942</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="2"/>
+        <f>$C$4/3*H18</f>
         <v>5.2685950413223148</v>
       </c>
       <c r="J18" s="3">
+        <f t="shared" si="2"/>
+        <v>15.805785123966945</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="2"/>
+        <v>47.41735537190084</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="3"/>
-        <v>15.805785123966945</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="3"/>
-        <v>47.41735537190084</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.4">
+        <v>47.417355371900832</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="4"/>
+        <v>29.525054466230934</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.4">
       <c r="G19" s="1">
         <f>SUM(G3:G18)</f>
         <v>322.66666666666669</v>
@@ -991,10 +1204,330 @@
         <f>SUM(I19:K19)</f>
         <v>433.33333333333331</v>
       </c>
+      <c r="M19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="4" max="4" width="4.25" customWidth="1"/>
+    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
+    <col min="10" max="12" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="9">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="10">
+        <f>(1+B2)^30</f>
+        <v>9.5981637791799734</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <f>E2+1</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>F2*(1+$B$3/100)</f>
+        <v>109.59816377917997</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <f>E3+1</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <f>F3*(1+$B$3/100)</f>
+        <v>120.11757503767956</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="2">
+        <f>I4*$I$2</f>
+        <v>380</v>
+      </c>
+      <c r="K4" s="2">
+        <f>J4/12</f>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="L4" s="2">
+        <f>K4/30</f>
+        <v>1.0555555555555556</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <f>E4+1</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <f>F4*(1+$B$3/100)</f>
+        <v>131.64665661737544</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <f>E5+1</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <f>F5*(1+$B$3/100)</f>
+        <v>144.28231832932579</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <f>E6+1</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F6*(1+$B$3/100)</f>
+        <v>158.13077154697228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <f>E7+1</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <f>F7*(1+$B$3/100)</f>
+        <v>173.30842198533159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <f>E8+1</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <f>F8*(1+$B$3/100)</f>
+        <v>189.94284817059605</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <f>E9+1</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <f>F9*(1+$B$3/100)</f>
+        <v>208.17387382484901</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <f>E10+1</f>
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <f>F10*(1+$B$3/100)</f>
+        <v>228.15474318002148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <f>E11+1</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <f>F11*(1+$B$3/100)</f>
+        <v>250.05340910040738</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <f>E12+1</f>
+        <v>11</v>
+      </c>
+      <c r="F13" s="1">
+        <f>F12*(1+$B$3/100)</f>
+        <v>274.05394484128738</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E14" s="5">
+        <f>E13+1</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="8">
+        <f>F13*(1+$B$3/100)</f>
+        <v>300.35809131045767</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <f>E14+1</f>
+        <v>13</v>
+      </c>
+      <c r="F15" s="1">
+        <f>F14*(1+$B$3/100)</f>
+        <v>329.18695283845432</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <f>E15+1</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <f>F15*(1+$B$3/100)</f>
+        <v>360.78285571158108</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <f>E16+1</f>
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <f>F16*(1+$B$3/100)</f>
+        <v>395.4113850899812</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <f>E17+1</f>
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F17*(1+$B$3/100)</f>
+        <v>433.36361743244157</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <f>E18+1</f>
+        <v>17</v>
+      </c>
+      <c r="F19" s="1">
+        <f>F18*(1+$B$3/100)</f>
+        <v>474.95856719298621</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <f>E19+1</f>
+        <v>18</v>
+      </c>
+      <c r="F20" s="1">
+        <f>F19*(1+$B$3/100)</f>
+        <v>520.54586835541556</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <f>E20+1</f>
+        <v>19</v>
+      </c>
+      <c r="F21" s="1">
+        <f>F20*(1+$B$3/100)</f>
+        <v>570.50871334592296</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <f>E21+1</f>
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <f>F21*(1+$B$3/100)</f>
+        <v>625.26707402735701</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <f>E22+1</f>
+        <v>21</v>
+      </c>
+      <c r="F23" s="1">
+        <f>F22*(1+$B$3/100)</f>
+        <v>685.28123184978915</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <f>E23+1</f>
+        <v>22</v>
+      </c>
+      <c r="F24" s="1">
+        <f>F23*(1+$B$3/100)</f>
+        <v>751.05564683071395</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <f>E24+1</f>
+        <v>23</v>
+      </c>
+      <c r="F25" s="1">
+        <f>F24*(1+$B$3/100)</f>
+        <v>823.14319788630542</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E26" s="5">
+        <f>E25+1</f>
+        <v>24</v>
+      </c>
+      <c r="F26" s="8">
+        <f>F25*(1+$B$3/100)</f>
+        <v>902.14983015661244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/etc/220708 buyback.xlsx
+++ b/etc/220708 buyback.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -554,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="M2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>16</v>
@@ -585,24 +585,24 @@
         <v>3.0991735537190079E-3</v>
       </c>
       <c r="I3" s="3">
-        <f>$C$4/3*H3</f>
-        <v>0.10330578512396693</v>
+        <f>$C$4*H3</f>
+        <v>0.30991735537190079</v>
       </c>
       <c r="J3" s="3">
         <f>I3*3</f>
-        <v>0.30991735537190079</v>
+        <v>0.92975206611570238</v>
       </c>
       <c r="K3" s="3">
         <f>J3*3</f>
-        <v>0.92975206611570238</v>
+        <v>2.7892561983471071</v>
       </c>
       <c r="M3">
         <f>I3*$M$2</f>
-        <v>0.92975206611570238</v>
+        <v>0.30991735537190079</v>
       </c>
       <c r="N3" s="7">
-        <f>$C$2/(I3*$M$2)*7</f>
-        <v>1505.7777777777781</v>
+        <f>$C$4/(I3*$M$2)*7</f>
+        <v>2258.666666666667</v>
       </c>
       <c r="P3" t="s">
         <v>10</v>
@@ -632,24 +632,24 @@
         <v>6.1983471074380158E-3</v>
       </c>
       <c r="I4" s="3">
-        <f>$C$4/3*H4</f>
-        <v>0.20661157024793386</v>
+        <f t="shared" ref="I4:I18" si="2">$C$4*H4</f>
+        <v>0.61983471074380159</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:K18" si="2">I4*3</f>
+        <f t="shared" ref="J4:K18" si="3">I4*3</f>
+        <v>1.8595041322314048</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="3"/>
+        <v>5.5785123966942143</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M18" si="4">I4*$M$2</f>
         <v>0.61983471074380159</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.8595041322314048</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M18" si="3">I4*$M$2</f>
-        <v>1.8595041322314048</v>
-      </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N18" si="4">$C$2/(I4*$M$2)*7</f>
-        <v>752.88888888888903</v>
+        <f t="shared" ref="N4:N18" si="5">$C$4/(I4*$M$2)*7</f>
+        <v>1129.3333333333335</v>
       </c>
       <c r="P4" t="s">
         <v>11</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E5">
-        <f t="shared" ref="E5:E18" si="5">E4+1</f>
+        <f t="shared" ref="E5:E18" si="6">E4+1</f>
         <v>3</v>
       </c>
       <c r="F5">
@@ -672,24 +672,24 @@
         <v>1.0330578512396695E-2</v>
       </c>
       <c r="I5" s="3">
-        <f>$C$4/3*H5</f>
-        <v>0.34435261707988984</v>
-      </c>
-      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>1.0330578512396695</v>
       </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>3.0991735537190088</v>
+      </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
-        <v>3.0991735537190088</v>
+        <f t="shared" si="3"/>
+        <v>9.2975206611570265</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
-        <v>3.0991735537190088</v>
+        <f t="shared" si="4"/>
+        <v>1.0330578512396695</v>
       </c>
       <c r="N5" s="7">
-        <f t="shared" si="4"/>
-        <v>451.73333333333323</v>
+        <f t="shared" si="5"/>
+        <v>677.59999999999991</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F6">
@@ -712,24 +712,24 @@
         <v>1.549586776859504E-2</v>
       </c>
       <c r="I6" s="3">
-        <f>$C$4/3*H6</f>
-        <v>0.51652892561983466</v>
-      </c>
-      <c r="J6" s="3">
         <f t="shared" si="2"/>
         <v>1.549586776859504</v>
       </c>
+      <c r="J6" s="3">
+        <f t="shared" si="3"/>
+        <v>4.6487603305785115</v>
+      </c>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
-        <v>4.6487603305785115</v>
+        <f t="shared" si="3"/>
+        <v>13.946280991735534</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
-        <v>4.6487603305785115</v>
+        <f t="shared" si="4"/>
+        <v>1.549586776859504</v>
       </c>
       <c r="N6" s="7">
-        <f t="shared" si="4"/>
-        <v>301.15555555555562</v>
+        <f t="shared" si="5"/>
+        <v>451.73333333333341</v>
       </c>
       <c r="P6" t="s">
         <v>13</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F7">
@@ -752,29 +752,29 @@
         <v>2.1694214876033055E-2</v>
       </c>
       <c r="I7" s="3">
-        <f>$C$4/3*H7</f>
-        <v>0.72314049586776852</v>
-      </c>
-      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>2.1694214876033056</v>
       </c>
+      <c r="J7" s="3">
+        <f t="shared" si="3"/>
+        <v>6.5082644628099171</v>
+      </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
-        <v>6.5082644628099171</v>
+        <f t="shared" si="3"/>
+        <v>19.52479338842975</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
-        <v>6.5082644628099171</v>
+        <f t="shared" si="4"/>
+        <v>2.1694214876033056</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" si="4"/>
-        <v>215.11111111111111</v>
+        <f t="shared" si="5"/>
+        <v>322.66666666666674</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F8">
@@ -789,29 +789,29 @@
         <v>2.8925619834710745E-2</v>
       </c>
       <c r="I8" s="3">
-        <f>$C$4/3*H8</f>
-        <v>0.96418732782369154</v>
-      </c>
-      <c r="J8" s="3">
         <f t="shared" si="2"/>
         <v>2.8925619834710745</v>
       </c>
+      <c r="J8" s="3">
+        <f t="shared" si="3"/>
+        <v>8.677685950413224</v>
+      </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
-        <v>8.677685950413224</v>
+        <f t="shared" si="3"/>
+        <v>26.033057851239672</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
-        <v>8.677685950413224</v>
+        <f t="shared" si="4"/>
+        <v>2.8925619834710745</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" si="4"/>
-        <v>161.33333333333331</v>
+        <f t="shared" si="5"/>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="F9">
@@ -826,29 +826,29 @@
         <v>3.71900826446281E-2</v>
       </c>
       <c r="I9" s="3">
-        <f>$C$4/3*H9</f>
-        <v>1.2396694214876034</v>
+        <f t="shared" si="2"/>
+        <v>3.71900826446281</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="2"/>
-        <v>3.7190082644628104</v>
+        <f t="shared" si="3"/>
+        <v>11.15702479338843</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
-        <v>11.15702479338843</v>
+        <f t="shared" si="3"/>
+        <v>33.471074380165291</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
-        <v>11.15702479338843</v>
+        <f t="shared" si="4"/>
+        <v>3.71900826446281</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="4"/>
-        <v>125.48148148148147</v>
+        <f t="shared" si="5"/>
+        <v>188.22222222222223</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="F10">
@@ -863,29 +863,29 @@
         <v>4.6487603305785122E-2</v>
       </c>
       <c r="I10" s="3">
-        <f>$C$4/3*H10</f>
-        <v>1.5495867768595042</v>
-      </c>
-      <c r="J10" s="3">
         <f t="shared" si="2"/>
         <v>4.6487603305785123</v>
       </c>
+      <c r="J10" s="3">
+        <f t="shared" si="3"/>
+        <v>13.946280991735538</v>
+      </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
-        <v>13.946280991735538</v>
+        <f t="shared" si="3"/>
+        <v>41.838842975206617</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
-        <v>13.946280991735538</v>
+        <f t="shared" si="4"/>
+        <v>4.6487603305785123</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" si="4"/>
-        <v>100.38518518518518</v>
+        <f t="shared" si="5"/>
+        <v>150.57777777777778</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="F11">
@@ -900,29 +900,29 @@
         <v>5.6818181818181809E-2</v>
       </c>
       <c r="I11" s="3">
-        <f>$C$4/3*H11</f>
-        <v>1.8939393939393938</v>
+        <f t="shared" si="2"/>
+        <v>5.6818181818181808</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>5.6818181818181817</v>
+        <f t="shared" si="3"/>
+        <v>17.045454545454543</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
-        <v>17.045454545454547</v>
+        <f t="shared" si="3"/>
+        <v>51.136363636363626</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
-        <v>17.045454545454543</v>
+        <f t="shared" si="4"/>
+        <v>5.6818181818181808</v>
       </c>
       <c r="N11" s="7">
-        <f t="shared" si="4"/>
-        <v>82.13333333333334</v>
+        <f t="shared" si="5"/>
+        <v>123.20000000000003</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="F12">
@@ -937,29 +937,29 @@
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="I12" s="3">
-        <f>$C$4/3*H12</f>
-        <v>2.2727272727272729</v>
+        <f t="shared" si="2"/>
+        <v>6.8181818181818175</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
-        <v>6.8181818181818183</v>
+        <f t="shared" si="3"/>
+        <v>20.454545454545453</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
-        <v>20.454545454545453</v>
+        <f t="shared" si="3"/>
+        <v>61.36363636363636</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
-        <v>20.454545454545457</v>
+        <f t="shared" si="4"/>
+        <v>6.8181818181818175</v>
       </c>
       <c r="N12" s="7">
-        <f t="shared" si="4"/>
-        <v>68.444444444444443</v>
+        <f t="shared" si="5"/>
+        <v>102.66666666666667</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="F13">
@@ -974,29 +974,29 @@
         <v>8.057851239669421E-2</v>
       </c>
       <c r="I13" s="3">
-        <f>$C$4/3*H13</f>
-        <v>2.6859504132231407</v>
-      </c>
-      <c r="J13" s="3">
         <f t="shared" si="2"/>
         <v>8.0578512396694215</v>
       </c>
+      <c r="J13" s="3">
+        <f t="shared" si="3"/>
+        <v>24.173553719008265</v>
+      </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
-        <v>24.173553719008265</v>
+        <f t="shared" si="3"/>
+        <v>72.52066115702479</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
-        <v>24.173553719008265</v>
+        <f t="shared" si="4"/>
+        <v>8.0578512396694215</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" si="4"/>
-        <v>57.914529914529922</v>
+        <f t="shared" si="5"/>
+        <v>86.871794871794876</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="F14">
@@ -1011,29 +1011,29 @@
         <v>9.400826446280991E-2</v>
       </c>
       <c r="I14" s="3">
-        <f>$C$4/3*H14</f>
-        <v>3.1336088154269972</v>
-      </c>
-      <c r="J14" s="3">
         <f t="shared" si="2"/>
         <v>9.4008264462809912</v>
       </c>
+      <c r="J14" s="3">
+        <f t="shared" si="3"/>
+        <v>28.202479338842974</v>
+      </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
-        <v>28.202479338842974</v>
+        <f t="shared" si="3"/>
+        <v>84.607438016528917</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
-        <v>28.202479338842974</v>
+        <f t="shared" si="4"/>
+        <v>9.4008264462809912</v>
       </c>
       <c r="N14" s="7">
-        <f t="shared" si="4"/>
-        <v>49.641025641025642</v>
+        <f t="shared" si="5"/>
+        <v>74.461538461538467</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F15">
@@ -1048,29 +1048,29 @@
         <v>0.10847107438016529</v>
       </c>
       <c r="I15" s="3">
-        <f>$C$4/3*H15</f>
-        <v>3.615702479338843</v>
-      </c>
-      <c r="J15" s="3">
         <f t="shared" si="2"/>
         <v>10.847107438016529</v>
       </c>
+      <c r="J15" s="3">
+        <f t="shared" si="3"/>
+        <v>32.541322314049587</v>
+      </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
-        <v>32.541322314049587</v>
+        <f t="shared" si="3"/>
+        <v>97.623966942148769</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
-        <v>32.541322314049587</v>
+        <f t="shared" si="4"/>
+        <v>10.847107438016529</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="4"/>
-        <v>43.022222222222219</v>
+        <f t="shared" si="5"/>
+        <v>64.533333333333331</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="E16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F16">
@@ -1085,29 +1085,29 @@
         <v>0.12396694214876032</v>
       </c>
       <c r="I16" s="3">
-        <f>$C$4/3*H16</f>
-        <v>4.1322314049586772</v>
-      </c>
-      <c r="J16" s="3">
         <f t="shared" si="2"/>
         <v>12.396694214876032</v>
       </c>
+      <c r="J16" s="3">
+        <f t="shared" si="3"/>
+        <v>37.190082644628092</v>
+      </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
-        <v>37.190082644628092</v>
+        <f t="shared" si="3"/>
+        <v>111.57024793388427</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
-        <v>37.190082644628092</v>
+        <f t="shared" si="4"/>
+        <v>12.396694214876032</v>
       </c>
       <c r="N16" s="7">
-        <f t="shared" si="4"/>
-        <v>37.644444444444453</v>
+        <f t="shared" si="5"/>
+        <v>56.466666666666676</v>
       </c>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.4">
       <c r="E17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F17">
@@ -1122,29 +1122,29 @@
         <v>0.14049586776859505</v>
       </c>
       <c r="I17" s="3">
-        <f>$C$4/3*H17</f>
-        <v>4.6831955922865021</v>
+        <f t="shared" si="2"/>
+        <v>14.049586776859504</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
-        <v>14.049586776859506</v>
+        <f t="shared" si="3"/>
+        <v>42.148760330578511</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
-        <v>42.148760330578519</v>
+        <f t="shared" si="3"/>
+        <v>126.44628099173553</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
-        <v>42.148760330578519</v>
+        <f t="shared" si="4"/>
+        <v>14.049586776859504</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="4"/>
-        <v>33.2156862745098</v>
+        <f t="shared" si="5"/>
+        <v>49.823529411764703</v>
       </c>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.4">
       <c r="E18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="F18">
@@ -1159,24 +1159,24 @@
         <v>0.15805785123966942</v>
       </c>
       <c r="I18" s="3">
-        <f>$C$4/3*H18</f>
-        <v>5.2685950413223148</v>
+        <f t="shared" si="2"/>
+        <v>15.805785123966942</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
-        <v>15.805785123966945</v>
+        <f t="shared" si="3"/>
+        <v>47.417355371900825</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
-        <v>47.41735537190084</v>
+        <f t="shared" si="3"/>
+        <v>142.25206611570246</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
-        <v>47.417355371900832</v>
+        <f t="shared" si="4"/>
+        <v>15.805785123966942</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="4"/>
-        <v>29.525054466230934</v>
+        <f t="shared" si="5"/>
+        <v>44.287581699346404</v>
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.4">
@@ -1190,21 +1190,24 @@
       </c>
       <c r="I19" s="3">
         <f>SUM(I3:I18)</f>
-        <v>33.333333333333336</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="J19" s="4">
         <f>SUM(J3:J18)</f>
-        <v>99.999999999999986</v>
+        <v>300</v>
       </c>
       <c r="K19" s="3">
         <f>SUM(K3:K18)</f>
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L19" s="3">
         <f>SUM(I19:K19)</f>
-        <v>433.33333333333331</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>1300</v>
+      </c>
+      <c r="M19" s="3">
+        <f>SUM(M3:M18)</f>
+        <v>99.999999999999986</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1217,13 +1220,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
     <col min="4" max="4" width="4.25" customWidth="1"/>
     <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
@@ -1234,7 +1237,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="9">
-        <v>7.8299999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1254,19 +1257,18 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
-        <f>(1+B2)^30</f>
-        <v>9.5981637791799734</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="E3">
-        <f>E2+1</f>
+        <f t="shared" ref="E3:E26" si="0">E2+1</f>
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <f>F2*(1+$B$3/100)</f>
-        <v>109.59816377917997</v>
+        <f t="shared" ref="F3:F26" si="1">F2*(1+$B$3/100)</f>
+        <v>103</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
@@ -1280,250 +1282,250 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E4">
-        <f>E3+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <f>F3*(1+$B$3/100)</f>
-        <v>120.11757503767956</v>
+        <f t="shared" si="1"/>
+        <v>106.09</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="I4">
-        <v>10000</v>
+        <v>1120</v>
       </c>
       <c r="J4" s="2">
         <f>I4*$I$2</f>
-        <v>380</v>
+        <v>42.56</v>
       </c>
       <c r="K4" s="2">
         <f>J4/12</f>
-        <v>31.666666666666668</v>
+        <v>3.5466666666666669</v>
       </c>
       <c r="L4" s="2">
         <f>K4/30</f>
-        <v>1.0555555555555556</v>
+        <v>0.11822222222222223</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E5">
-        <f>E4+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <f>F4*(1+$B$3/100)</f>
-        <v>131.64665661737544</v>
+        <f t="shared" si="1"/>
+        <v>109.2727</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E6">
-        <f>E5+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <f>F5*(1+$B$3/100)</f>
-        <v>144.28231832932579</v>
+        <f t="shared" si="1"/>
+        <v>112.550881</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E7">
-        <f>E6+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <f>F6*(1+$B$3/100)</f>
-        <v>158.13077154697228</v>
+        <f t="shared" si="1"/>
+        <v>115.92740743</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E8">
-        <f>E7+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F8" s="1">
-        <f>F7*(1+$B$3/100)</f>
-        <v>173.30842198533159</v>
+        <f t="shared" si="1"/>
+        <v>119.4052296529</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E9">
-        <f>E8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F9" s="1">
-        <f>F8*(1+$B$3/100)</f>
-        <v>189.94284817059605</v>
+        <f t="shared" si="1"/>
+        <v>122.987386542487</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E10">
-        <f>E9+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <f>F9*(1+$B$3/100)</f>
-        <v>208.17387382484901</v>
+        <f t="shared" si="1"/>
+        <v>126.67700813876162</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E11">
-        <f>E10+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F11" s="1">
-        <f>F10*(1+$B$3/100)</f>
-        <v>228.15474318002148</v>
+        <f t="shared" si="1"/>
+        <v>130.47731838292447</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E12">
-        <f>E11+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <f>F11*(1+$B$3/100)</f>
-        <v>250.05340910040738</v>
+        <f t="shared" si="1"/>
+        <v>134.39163793441222</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E13">
-        <f>E12+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F13" s="1">
-        <f>F12*(1+$B$3/100)</f>
-        <v>274.05394484128738</v>
+        <f t="shared" si="1"/>
+        <v>138.4233870724446</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E14" s="5">
-        <f>E13+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F14" s="8">
-        <f>F13*(1+$B$3/100)</f>
-        <v>300.35809131045767</v>
+        <f t="shared" si="1"/>
+        <v>142.57608868461793</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E15">
-        <f>E14+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F15" s="1">
-        <f>F14*(1+$B$3/100)</f>
-        <v>329.18695283845432</v>
+        <f t="shared" si="1"/>
+        <v>146.85337134515646</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E16">
-        <f>E15+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F16" s="1">
-        <f>F15*(1+$B$3/100)</f>
-        <v>360.78285571158108</v>
+        <f t="shared" si="1"/>
+        <v>151.25897248551115</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E17">
-        <f>E16+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F17" s="1">
-        <f>F16*(1+$B$3/100)</f>
-        <v>395.4113850899812</v>
+        <f t="shared" si="1"/>
+        <v>155.79674166007649</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E18">
-        <f>E17+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F18" s="1">
-        <f>F17*(1+$B$3/100)</f>
-        <v>433.36361743244157</v>
+        <f t="shared" si="1"/>
+        <v>160.47064390987879</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E19">
-        <f>E18+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F19" s="1">
-        <f>F18*(1+$B$3/100)</f>
-        <v>474.95856719298621</v>
+        <f t="shared" si="1"/>
+        <v>165.28476322717515</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E20">
-        <f>E19+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F20" s="1">
-        <f>F19*(1+$B$3/100)</f>
-        <v>520.54586835541556</v>
+        <f t="shared" si="1"/>
+        <v>170.24330612399041</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E21">
-        <f>E20+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F21" s="1">
-        <f>F20*(1+$B$3/100)</f>
-        <v>570.50871334592296</v>
+        <f t="shared" si="1"/>
+        <v>175.35060530771011</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E22">
-        <f>E21+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F22" s="1">
-        <f>F21*(1+$B$3/100)</f>
-        <v>625.26707402735701</v>
+        <f t="shared" si="1"/>
+        <v>180.61112346694142</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E23">
-        <f>E22+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F23" s="1">
-        <f>F22*(1+$B$3/100)</f>
-        <v>685.28123184978915</v>
+        <f t="shared" si="1"/>
+        <v>186.02945717094966</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E24">
-        <f>E23+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="F24" s="1">
-        <f>F23*(1+$B$3/100)</f>
-        <v>751.05564683071395</v>
+        <f t="shared" si="1"/>
+        <v>191.61034088607815</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E25">
-        <f>E24+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F25" s="1">
-        <f>F24*(1+$B$3/100)</f>
-        <v>823.14319788630542</v>
+        <f t="shared" si="1"/>
+        <v>197.35865111266051</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E26" s="5">
-        <f>E25+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F26" s="8">
-        <f>F25*(1+$B$3/100)</f>
-        <v>902.14983015661244</v>
+        <f t="shared" si="1"/>
+        <v>203.27941064604033</v>
       </c>
     </row>
   </sheetData>
